--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>TestdataKey</t>
   </si>
@@ -43,7 +43,7 @@
     <t>BookingId</t>
   </si>
   <si>
-    <t>GBBBBF</t>
+    <t>B2FS2B</t>
   </si>
   <si>
     <t>PassengerFirstName</t>
@@ -142,19 +142,19 @@
     <t>RatePlan</t>
   </si>
   <si>
-    <t>SCA_M2305_RP</t>
+    <t>M2305FX</t>
   </si>
   <si>
     <t>SailingMonthrange</t>
   </si>
   <si>
-    <t>02/07/2023   /   17/07/2023</t>
+    <t>02/03/2023   /   17/03/2023</t>
   </si>
   <si>
     <t>SailingMonthrangeB2B</t>
   </si>
   <si>
-    <t>07/02/2023   /   07/17/2023</t>
+    <t>03/02/2023   /   03/17/2023</t>
   </si>
   <si>
     <t>CategoryClass</t>
@@ -172,25 +172,67 @@
     <t>SailingStartDateB2B</t>
   </si>
   <si>
-    <t>02/07/2023</t>
+    <t>03/02/2023</t>
   </si>
   <si>
     <t>SailingEndDateB2B</t>
   </si>
   <si>
-    <t>07/17/2023</t>
+    <t>03/17/2023</t>
   </si>
   <si>
     <t>SailingStartDate</t>
   </si>
   <si>
-    <t>07/02/2023</t>
+    <t>02/03/2023</t>
   </si>
   <si>
     <t>SailingEndDate</t>
   </si>
   <si>
-    <t>17/02/2023</t>
+    <t>17/03/2023</t>
+  </si>
+  <si>
+    <t>RateType</t>
+  </si>
+  <si>
+    <t>Freedom Fare</t>
+  </si>
+  <si>
+    <t>RateClassification</t>
+  </si>
+  <si>
+    <t>FacilityUncheckedPassenger</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>BookingConfirmationStatus</t>
+  </si>
+  <si>
+    <t>CONFIRMED</t>
+  </si>
+  <si>
+    <t>FacilityStatusCNF</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>FacilityStatusWL</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>ChequeNO</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
   </si>
 </sst>
 </file>
@@ -199,8 +241,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -244,75 +286,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,30 +408,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -358,21 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -389,6 +431,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,169 +479,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,32 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,6 +640,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -634,6 +661,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -683,7 +725,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,127 +747,127 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1104,15 +1143,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1152,7 +1191,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1168,7 +1207,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1264,7 +1303,7 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1296,7 +1335,7 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1304,7 +1343,7 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1328,7 +1367,7 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1336,7 +1375,7 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1344,7 +1383,7 @@
       <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1352,8 +1391,72 @@
       <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
